--- a/resources/PIKA Architecture.xlsx
+++ b/resources/PIKA Architecture.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sj\Desktop\PikaRISC\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sj\Desktop\PikaProject\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -487,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1043,19 +1043,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1170,19 +1157,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1205,7 +1179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1275,7 +1249,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,7 +1264,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,7 +1291,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1324,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,9 +1336,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1380,7 +1351,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1464,7 +1435,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,25 +1459,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1560,157 +1531,157 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2161,7 +2132,7 @@
     </row>
     <row r="19" spans="2:3" ht="18" thickBot="1"/>
     <row r="20" spans="2:3" ht="18" thickBot="1">
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="93" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2231,100 +2202,100 @@
   <sheetData>
     <row r="1" spans="1:33" ht="18" thickBot="1">
       <c r="A1" s="11"/>
-      <c r="B1" s="126">
+      <c r="B1" s="123">
         <v>31</v>
       </c>
-      <c r="C1" s="126">
+      <c r="C1" s="123">
         <v>30</v>
       </c>
-      <c r="D1" s="126">
+      <c r="D1" s="123">
         <v>29</v>
       </c>
-      <c r="E1" s="126">
+      <c r="E1" s="123">
         <v>28</v>
       </c>
-      <c r="F1" s="126">
+      <c r="F1" s="123">
         <v>27</v>
       </c>
-      <c r="G1" s="126">
+      <c r="G1" s="123">
         <v>26</v>
       </c>
-      <c r="H1" s="126">
+      <c r="H1" s="123">
         <v>25</v>
       </c>
-      <c r="I1" s="126">
+      <c r="I1" s="123">
         <v>24</v>
       </c>
-      <c r="J1" s="126">
+      <c r="J1" s="123">
         <v>23</v>
       </c>
-      <c r="K1" s="126">
+      <c r="K1" s="123">
         <v>22</v>
       </c>
-      <c r="L1" s="126">
+      <c r="L1" s="123">
         <v>21</v>
       </c>
-      <c r="M1" s="126">
+      <c r="M1" s="123">
         <v>20</v>
       </c>
-      <c r="N1" s="126">
+      <c r="N1" s="123">
         <v>19</v>
       </c>
-      <c r="O1" s="126">
+      <c r="O1" s="123">
         <v>18</v>
       </c>
-      <c r="P1" s="126">
+      <c r="P1" s="123">
         <v>17</v>
       </c>
-      <c r="Q1" s="126">
+      <c r="Q1" s="123">
         <v>16</v>
       </c>
-      <c r="R1" s="126">
+      <c r="R1" s="123">
         <v>15</v>
       </c>
-      <c r="S1" s="126">
+      <c r="S1" s="123">
         <v>14</v>
       </c>
-      <c r="T1" s="126">
+      <c r="T1" s="123">
         <v>13</v>
       </c>
-      <c r="U1" s="126">
+      <c r="U1" s="123">
         <v>12</v>
       </c>
-      <c r="V1" s="126">
+      <c r="V1" s="123">
         <v>11</v>
       </c>
-      <c r="W1" s="126">
-        <v>10</v>
-      </c>
-      <c r="X1" s="126">
+      <c r="W1" s="123">
+        <v>10</v>
+      </c>
+      <c r="X1" s="123">
         <v>9</v>
       </c>
-      <c r="Y1" s="126">
+      <c r="Y1" s="123">
         <v>8</v>
       </c>
-      <c r="Z1" s="126">
+      <c r="Z1" s="123">
         <v>7</v>
       </c>
-      <c r="AA1" s="126">
+      <c r="AA1" s="123">
         <v>6</v>
       </c>
-      <c r="AB1" s="126">
+      <c r="AB1" s="123">
         <v>5</v>
       </c>
-      <c r="AC1" s="126">
+      <c r="AC1" s="123">
         <v>4</v>
       </c>
-      <c r="AD1" s="126">
+      <c r="AD1" s="123">
         <v>3</v>
       </c>
-      <c r="AE1" s="126">
+      <c r="AE1" s="123">
         <v>2</v>
       </c>
-      <c r="AF1" s="126">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="126">
+      <c r="AF1" s="123">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="123">
         <v>0</v>
       </c>
     </row>
@@ -2332,13 +2303,13 @@
       <c r="A2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="105">
-        <v>0</v>
-      </c>
-      <c r="C2" s="106">
-        <v>0</v>
-      </c>
-      <c r="D2" s="107">
+      <c r="B2" s="104">
+        <v>0</v>
+      </c>
+      <c r="C2" s="105">
+        <v>0</v>
+      </c>
+      <c r="D2" s="106">
         <v>0</v>
       </c>
       <c r="E2" s="50">
@@ -2347,73 +2318,73 @@
       <c r="F2" s="51">
         <v>0</v>
       </c>
-      <c r="G2" s="52">
-        <v>0</v>
-      </c>
-      <c r="H2" s="161" t="s">
+      <c r="G2" s="165">
+        <v>0</v>
+      </c>
+      <c r="H2" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="161" t="s">
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="124" t="s">
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="124" t="s">
+      <c r="Q2" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="124" t="s">
+      <c r="S2" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="124" t="s">
+      <c r="T2" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="124" t="s">
+      <c r="U2" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="124" t="s">
+      <c r="V2" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="125" t="s">
+      <c r="W2" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="124" t="s">
+      <c r="X2" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="125" t="s">
+      <c r="Y2" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="124" t="s">
+      <c r="Z2" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="125" t="s">
+      <c r="AA2" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="124" t="s">
+      <c r="AB2" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="125" t="s">
+      <c r="AC2" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="124" t="s">
+      <c r="AD2" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="124" t="s">
+      <c r="AE2" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" s="124" t="s">
+      <c r="AF2" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="124" t="s">
+      <c r="AG2" s="164" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2421,62 +2392,62 @@
       <c r="A3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="108">
-        <v>0</v>
-      </c>
-      <c r="C3" s="109">
-        <v>0</v>
-      </c>
-      <c r="D3" s="110">
-        <v>0</v>
-      </c>
-      <c r="E3" s="53">
-        <v>1</v>
-      </c>
-      <c r="F3" s="54">
-        <v>0</v>
-      </c>
-      <c r="G3" s="55">
-        <v>1</v>
-      </c>
-      <c r="H3" s="159" t="s">
+      <c r="B3" s="107">
+        <v>0</v>
+      </c>
+      <c r="C3" s="108">
+        <v>0</v>
+      </c>
+      <c r="D3" s="109">
+        <v>0</v>
+      </c>
+      <c r="E3" s="52">
+        <v>1</v>
+      </c>
+      <c r="F3" s="53">
+        <v>0</v>
+      </c>
+      <c r="G3" s="54">
+        <v>1</v>
+      </c>
+      <c r="H3" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="56" t="s">
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="149" t="s">
+      <c r="P3" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="160"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="146"/>
     </row>
     <row r="4" spans="1:33" ht="18" thickBot="1">
       <c r="A4" s="11" t="s">
@@ -2500,13 +2471,13 @@
       <c r="G4" s="27">
         <v>1</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="96" t="s">
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="95" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="28" t="s">
@@ -2521,23 +2492,23 @@
       <c r="P4" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="147"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="141"/>
+      <c r="V4" s="141"/>
+      <c r="W4" s="141"/>
+      <c r="X4" s="141"/>
+      <c r="Y4" s="141"/>
+      <c r="Z4" s="141"/>
+      <c r="AA4" s="141"/>
+      <c r="AB4" s="141"/>
+      <c r="AC4" s="141"/>
+      <c r="AD4" s="141"/>
+      <c r="AE4" s="141"/>
+      <c r="AF4" s="141"/>
+      <c r="AG4" s="144"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="11" t="s">
@@ -2561,24 +2532,24 @@
       <c r="G5" s="14">
         <v>0</v>
       </c>
-      <c r="H5" s="164" t="s">
+      <c r="H5" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="130" t="s">
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="130" t="s">
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="160" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="132"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="152"/>
       <c r="T5" s="15" t="s">
         <v>10</v>
       </c>
@@ -2644,24 +2615,24 @@
       <c r="G6" s="19">
         <v>0</v>
       </c>
-      <c r="H6" s="148" t="s">
+      <c r="H6" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="127" t="s">
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="127" t="s">
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="153"/>
+      <c r="P6" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="129"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="153"/>
       <c r="T6" s="20" t="s">
         <v>10</v>
       </c>
@@ -2727,24 +2698,24 @@
       <c r="G7" s="19">
         <v>0</v>
       </c>
-      <c r="H7" s="148" t="s">
+      <c r="H7" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="127" t="s">
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="129"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="153"/>
       <c r="T7" s="20" t="s">
         <v>62</v>
       </c>
@@ -2813,21 +2784,21 @@
       <c r="H8" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="165" t="s">
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="165" t="s">
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
-      <c r="S8" s="156"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="155"/>
       <c r="T8" s="28" t="s">
         <v>63</v>
       </c>
@@ -2893,38 +2864,38 @@
       <c r="G9" s="14">
         <v>1</v>
       </c>
-      <c r="H9" s="164" t="s">
+      <c r="H9" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="130" t="s">
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="130" t="s">
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="152"/>
+      <c r="P9" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="131"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="131"/>
-      <c r="Y9" s="131"/>
-      <c r="Z9" s="131"/>
-      <c r="AA9" s="131"/>
-      <c r="AB9" s="131"/>
-      <c r="AC9" s="131"/>
-      <c r="AD9" s="131"/>
-      <c r="AE9" s="131"/>
-      <c r="AF9" s="131"/>
-      <c r="AG9" s="134"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="151"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="151"/>
+      <c r="AA9" s="151"/>
+      <c r="AB9" s="151"/>
+      <c r="AC9" s="151"/>
+      <c r="AD9" s="151"/>
+      <c r="AE9" s="151"/>
+      <c r="AF9" s="151"/>
+      <c r="AG9" s="161"/>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="11" t="s">
@@ -2948,38 +2919,38 @@
       <c r="G10" s="19">
         <v>1</v>
       </c>
-      <c r="H10" s="148" t="s">
+      <c r="H10" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="127" t="s">
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="127" t="s">
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="146"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="125"/>
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="125"/>
+      <c r="AE10" s="125"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="126"/>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="11" t="s">
@@ -3003,38 +2974,38 @@
       <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="148" t="s">
+      <c r="H11" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="127" t="s">
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="127" t="s">
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="146"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="126"/>
     </row>
     <row r="12" spans="1:33" ht="18" thickBot="1">
       <c r="A12" s="11" t="s">
@@ -3058,38 +3029,38 @@
       <c r="G12" s="27">
         <v>1</v>
       </c>
-      <c r="H12" s="153" t="s">
+      <c r="H12" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="142"/>
       <c r="L12" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="145"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="142"/>
       <c r="P12" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="144"/>
-      <c r="AE12" s="144"/>
-      <c r="AF12" s="144"/>
-      <c r="AG12" s="147"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="141"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="141"/>
+      <c r="W12" s="141"/>
+      <c r="X12" s="141"/>
+      <c r="Y12" s="141"/>
+      <c r="Z12" s="141"/>
+      <c r="AA12" s="141"/>
+      <c r="AB12" s="141"/>
+      <c r="AC12" s="141"/>
+      <c r="AD12" s="141"/>
+      <c r="AE12" s="141"/>
+      <c r="AF12" s="141"/>
+      <c r="AG12" s="144"/>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="11" t="s">
@@ -3110,27 +3081,27 @@
       <c r="F13" s="13">
         <v>0</v>
       </c>
-      <c r="G13" s="84">
-        <v>0</v>
-      </c>
-      <c r="H13" s="142" t="s">
+      <c r="G13" s="83">
+        <v>0</v>
+      </c>
+      <c r="H13" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133" t="s">
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="133" t="s">
+      <c r="M13" s="130"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="133"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
       <c r="T13" s="15" t="s">
         <v>10</v>
       </c>
@@ -3193,27 +3164,27 @@
       <c r="F14" s="18">
         <v>1</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="84">
         <v>0</v>
       </c>
       <c r="H14" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136" t="s">
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136" t="s">
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="136"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
       <c r="T14" s="20" t="s">
         <v>59</v>
       </c>
@@ -3276,21 +3247,21 @@
       <c r="F15" s="26">
         <v>0</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="85">
         <v>0</v>
       </c>
       <c r="H15" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136" t="s">
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="136"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
       <c r="P15" s="20" t="s">
         <v>10</v>
       </c>
@@ -3365,27 +3336,27 @@
       <c r="F16" s="26">
         <v>1</v>
       </c>
-      <c r="G16" s="86">
-        <v>0</v>
-      </c>
-      <c r="H16" s="138" t="s">
+      <c r="G16" s="85">
+        <v>0</v>
+      </c>
+      <c r="H16" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139" t="s">
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="139" t="s">
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="139"/>
+      <c r="Q16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
       <c r="T16" s="39" t="s">
         <v>10</v>
       </c>
@@ -3448,41 +3419,41 @@
       <c r="F17" s="13">
         <v>0</v>
       </c>
-      <c r="G17" s="84">
-        <v>1</v>
-      </c>
-      <c r="H17" s="140" t="s">
+      <c r="G17" s="83">
+        <v>1</v>
+      </c>
+      <c r="H17" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141" t="s">
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141" t="s">
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="141"/>
-      <c r="U17" s="141"/>
-      <c r="V17" s="141"/>
-      <c r="W17" s="141"/>
-      <c r="X17" s="141"/>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="141"/>
-      <c r="AA17" s="141"/>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="141"/>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="141"/>
-      <c r="AF17" s="141"/>
-      <c r="AG17" s="166"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
+      <c r="X17" s="156"/>
+      <c r="Y17" s="156"/>
+      <c r="Z17" s="156"/>
+      <c r="AA17" s="156"/>
+      <c r="AB17" s="156"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="156"/>
+      <c r="AE17" s="156"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="157"/>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="11" t="s">
@@ -3503,41 +3474,41 @@
       <c r="F18" s="18">
         <v>1</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="84">
         <v>1</v>
       </c>
       <c r="H18" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136" t="s">
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="136"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136" t="s">
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
-      <c r="S18" s="136"/>
-      <c r="T18" s="136"/>
-      <c r="U18" s="136"/>
-      <c r="V18" s="136"/>
-      <c r="W18" s="136"/>
-      <c r="X18" s="136"/>
-      <c r="Y18" s="136"/>
-      <c r="Z18" s="136"/>
-      <c r="AA18" s="136"/>
-      <c r="AB18" s="136"/>
-      <c r="AC18" s="136"/>
-      <c r="AD18" s="136"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="136"/>
-      <c r="AG18" s="137"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="134"/>
+      <c r="X18" s="134"/>
+      <c r="Y18" s="134"/>
+      <c r="Z18" s="134"/>
+      <c r="AA18" s="134"/>
+      <c r="AB18" s="134"/>
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="134"/>
+      <c r="AE18" s="134"/>
+      <c r="AF18" s="134"/>
+      <c r="AG18" s="147"/>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="11" t="s">
@@ -3558,15 +3529,15 @@
       <c r="F19" s="26">
         <v>0</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="85">
         <v>1</v>
       </c>
       <c r="H19" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
       <c r="L19" s="20" t="s">
         <v>10</v>
       </c>
@@ -3579,26 +3550,26 @@
       <c r="O19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P19" s="136" t="s">
+      <c r="P19" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="136"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="136"/>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="136"/>
-      <c r="Z19" s="136"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="136"/>
-      <c r="AD19" s="136"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="136"/>
-      <c r="AG19" s="137"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="134"/>
+      <c r="X19" s="134"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="134"/>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="134"/>
+      <c r="AD19" s="134"/>
+      <c r="AE19" s="134"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="147"/>
     </row>
     <row r="20" spans="1:33" ht="18" thickBot="1">
       <c r="A20" s="11" t="s">
@@ -3619,53 +3590,53 @@
       <c r="F20" s="26">
         <v>1</v>
       </c>
-      <c r="G20" s="86">
-        <v>1</v>
-      </c>
-      <c r="H20" s="138" t="s">
+      <c r="G20" s="85">
+        <v>1</v>
+      </c>
+      <c r="H20" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139" t="s">
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="139" t="s">
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="Q20" s="139"/>
-      <c r="R20" s="139"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139"/>
-      <c r="U20" s="139"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="139"/>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="139"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="139"/>
-      <c r="AE20" s="139"/>
-      <c r="AF20" s="139"/>
-      <c r="AG20" s="152"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="137"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="148"/>
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="111">
-        <v>0</v>
-      </c>
-      <c r="C21" s="112">
-        <v>1</v>
-      </c>
-      <c r="D21" s="113">
+      <c r="B21" s="110">
+        <v>0</v>
+      </c>
+      <c r="C21" s="111">
+        <v>1</v>
+      </c>
+      <c r="D21" s="112">
         <v>1</v>
       </c>
       <c r="E21" s="12">
@@ -3677,64 +3648,64 @@
       <c r="G21" s="14">
         <v>0</v>
       </c>
-      <c r="H21" s="159" t="s">
+      <c r="H21" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="149" t="s">
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="M21" s="150"/>
-      <c r="N21" s="150"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="149" t="s">
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="150"/>
-      <c r="R21" s="150"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="U21" s="56" t="s">
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="V21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="W21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="X21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG21" s="75" t="s">
+      <c r="V21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG21" s="74" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3742,13 +3713,13 @@
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="114">
-        <v>0</v>
-      </c>
-      <c r="C22" s="115">
-        <v>1</v>
-      </c>
-      <c r="D22" s="116">
+      <c r="B22" s="113">
+        <v>0</v>
+      </c>
+      <c r="C22" s="114">
+        <v>1</v>
+      </c>
+      <c r="D22" s="115">
         <v>1</v>
       </c>
       <c r="E22" s="17">
@@ -3760,24 +3731,24 @@
       <c r="G22" s="19">
         <v>0</v>
       </c>
-      <c r="H22" s="148" t="s">
+      <c r="H22" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="127" t="s">
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="127" t="s">
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="129"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="153"/>
       <c r="T22" s="20" t="s">
         <v>59</v>
       </c>
@@ -3825,13 +3796,13 @@
       <c r="A23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="57">
-        <v>0</v>
-      </c>
-      <c r="C23" s="58">
-        <v>1</v>
-      </c>
-      <c r="D23" s="59">
+      <c r="B23" s="56">
+        <v>0</v>
+      </c>
+      <c r="C23" s="57">
+        <v>1</v>
+      </c>
+      <c r="D23" s="58">
         <v>1</v>
       </c>
       <c r="E23" s="25">
@@ -3843,24 +3814,24 @@
       <c r="G23" s="27">
         <v>0</v>
       </c>
-      <c r="H23" s="153" t="s">
+      <c r="H23" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="145"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="142"/>
       <c r="L23" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="145"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="142"/>
       <c r="P23" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
-      <c r="S23" s="145"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="142"/>
       <c r="T23" s="28" t="s">
         <v>10</v>
       </c>
@@ -3908,13 +3879,13 @@
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="111">
-        <v>0</v>
-      </c>
-      <c r="C24" s="112">
-        <v>1</v>
-      </c>
-      <c r="D24" s="113">
+      <c r="B24" s="110">
+        <v>0</v>
+      </c>
+      <c r="C24" s="111">
+        <v>1</v>
+      </c>
+      <c r="D24" s="112">
         <v>1</v>
       </c>
       <c r="E24" s="12">
@@ -3923,53 +3894,53 @@
       <c r="F24" s="13">
         <v>0</v>
       </c>
-      <c r="G24" s="84">
-        <v>1</v>
-      </c>
-      <c r="H24" s="142" t="s">
+      <c r="G24" s="83">
+        <v>1</v>
+      </c>
+      <c r="H24" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133" t="s">
+      <c r="I24" s="130"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="133" t="s">
+      <c r="M24" s="130"/>
+      <c r="N24" s="130"/>
+      <c r="O24" s="130"/>
+      <c r="P24" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="133"/>
-      <c r="S24" s="133"/>
-      <c r="T24" s="133"/>
-      <c r="U24" s="133"/>
-      <c r="V24" s="133"/>
-      <c r="W24" s="133"/>
-      <c r="X24" s="133"/>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="133"/>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="133"/>
-      <c r="AC24" s="133"/>
-      <c r="AD24" s="133"/>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="133"/>
-      <c r="AG24" s="157"/>
+      <c r="Q24" s="130"/>
+      <c r="R24" s="130"/>
+      <c r="S24" s="130"/>
+      <c r="T24" s="130"/>
+      <c r="U24" s="130"/>
+      <c r="V24" s="130"/>
+      <c r="W24" s="130"/>
+      <c r="X24" s="130"/>
+      <c r="Y24" s="130"/>
+      <c r="Z24" s="130"/>
+      <c r="AA24" s="130"/>
+      <c r="AB24" s="130"/>
+      <c r="AC24" s="130"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="158"/>
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="114">
-        <v>0</v>
-      </c>
-      <c r="C25" s="115">
-        <v>1</v>
-      </c>
-      <c r="D25" s="116">
+      <c r="B25" s="113">
+        <v>0</v>
+      </c>
+      <c r="C25" s="114">
+        <v>1</v>
+      </c>
+      <c r="D25" s="115">
         <v>1</v>
       </c>
       <c r="E25" s="17">
@@ -3978,53 +3949,53 @@
       <c r="F25" s="18">
         <v>1</v>
       </c>
-      <c r="G25" s="85">
+      <c r="G25" s="84">
         <v>1</v>
       </c>
       <c r="H25" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136" t="s">
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="136" t="s">
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="Q25" s="136"/>
-      <c r="R25" s="136"/>
-      <c r="S25" s="136"/>
-      <c r="T25" s="136"/>
-      <c r="U25" s="136"/>
-      <c r="V25" s="136"/>
-      <c r="W25" s="136"/>
-      <c r="X25" s="136"/>
-      <c r="Y25" s="136"/>
-      <c r="Z25" s="136"/>
-      <c r="AA25" s="136"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="136"/>
-      <c r="AD25" s="136"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="136"/>
-      <c r="AG25" s="137"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="134"/>
+      <c r="AF25" s="134"/>
+      <c r="AG25" s="147"/>
     </row>
     <row r="26" spans="1:33" ht="18" thickBot="1">
       <c r="A26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="57">
-        <v>0</v>
-      </c>
-      <c r="C26" s="58">
-        <v>1</v>
-      </c>
-      <c r="D26" s="59">
+      <c r="B26" s="56">
+        <v>0</v>
+      </c>
+      <c r="C26" s="57">
+        <v>1</v>
+      </c>
+      <c r="D26" s="58">
         <v>1</v>
       </c>
       <c r="E26" s="25">
@@ -4033,65 +4004,65 @@
       <c r="F26" s="26">
         <v>0</v>
       </c>
-      <c r="G26" s="86">
-        <v>1</v>
-      </c>
-      <c r="H26" s="138" t="s">
+      <c r="G26" s="85">
+        <v>1</v>
+      </c>
+      <c r="H26" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139" t="s">
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="139" t="s">
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="Q26" s="139"/>
-      <c r="R26" s="139"/>
-      <c r="S26" s="139"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="139"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="139"/>
-      <c r="X26" s="139"/>
-      <c r="Y26" s="139"/>
-      <c r="Z26" s="139"/>
-      <c r="AA26" s="139"/>
-      <c r="AB26" s="139"/>
-      <c r="AC26" s="139"/>
-      <c r="AD26" s="139"/>
-      <c r="AE26" s="139"/>
-      <c r="AF26" s="139"/>
-      <c r="AG26" s="152"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="137"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="148"/>
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="61">
-        <v>1</v>
-      </c>
-      <c r="C27" s="62">
-        <v>0</v>
-      </c>
-      <c r="D27" s="63">
-        <v>0</v>
-      </c>
-      <c r="E27" s="64">
-        <v>0</v>
-      </c>
-      <c r="F27" s="65">
-        <v>0</v>
-      </c>
-      <c r="G27" s="117">
-        <v>0</v>
-      </c>
-      <c r="H27" s="95" t="s">
+      <c r="B27" s="60">
+        <v>1</v>
+      </c>
+      <c r="C27" s="61">
+        <v>0</v>
+      </c>
+      <c r="D27" s="62">
+        <v>0</v>
+      </c>
+      <c r="E27" s="63">
+        <v>0</v>
+      </c>
+      <c r="F27" s="64">
+        <v>0</v>
+      </c>
+      <c r="G27" s="116">
+        <v>0</v>
+      </c>
+      <c r="H27" s="94" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="15" t="s">
@@ -4103,18 +4074,18 @@
       <c r="K27" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="133" t="s">
+      <c r="L27" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="133" t="s">
+      <c r="M27" s="130"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="133"/>
-      <c r="S27" s="133"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="130"/>
       <c r="T27" s="15" t="s">
         <v>59</v>
       </c>
@@ -4162,25 +4133,25 @@
       <c r="A28" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="97">
-        <v>1</v>
-      </c>
-      <c r="C28" s="98">
-        <v>0</v>
-      </c>
-      <c r="D28" s="99">
-        <v>0</v>
-      </c>
-      <c r="E28" s="100">
-        <v>0</v>
-      </c>
-      <c r="F28" s="101">
-        <v>0</v>
-      </c>
-      <c r="G28" s="118">
-        <v>1</v>
-      </c>
-      <c r="H28" s="96" t="s">
+      <c r="B28" s="96">
+        <v>1</v>
+      </c>
+      <c r="C28" s="97">
+        <v>0</v>
+      </c>
+      <c r="D28" s="98">
+        <v>0</v>
+      </c>
+      <c r="E28" s="99">
+        <v>0</v>
+      </c>
+      <c r="F28" s="100">
+        <v>0</v>
+      </c>
+      <c r="G28" s="117">
+        <v>1</v>
+      </c>
+      <c r="H28" s="95" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="28" t="s">
@@ -4192,644 +4163,644 @@
       <c r="K28" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="167" t="s">
+      <c r="L28" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="M28" s="167"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="167"/>
-      <c r="P28" s="167" t="s">
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="Q28" s="167"/>
-      <c r="R28" s="167"/>
-      <c r="S28" s="167"/>
-      <c r="T28" s="167"/>
-      <c r="U28" s="167"/>
-      <c r="V28" s="167"/>
-      <c r="W28" s="167"/>
-      <c r="X28" s="167"/>
-      <c r="Y28" s="167"/>
-      <c r="Z28" s="167"/>
-      <c r="AA28" s="167"/>
-      <c r="AB28" s="167"/>
-      <c r="AC28" s="167"/>
-      <c r="AD28" s="167"/>
-      <c r="AE28" s="167"/>
-      <c r="AF28" s="167"/>
-      <c r="AG28" s="168"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="138"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="138"/>
+      <c r="X28" s="138"/>
+      <c r="Y28" s="138"/>
+      <c r="Z28" s="138"/>
+      <c r="AA28" s="138"/>
+      <c r="AB28" s="138"/>
+      <c r="AC28" s="138"/>
+      <c r="AD28" s="138"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="139"/>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="61">
-        <v>1</v>
-      </c>
-      <c r="C29" s="62">
-        <v>0</v>
-      </c>
-      <c r="D29" s="102">
+      <c r="B29" s="60">
+        <v>1</v>
+      </c>
+      <c r="C29" s="61">
+        <v>0</v>
+      </c>
+      <c r="D29" s="101">
         <v>0</v>
       </c>
       <c r="E29" s="12">
         <v>0</v>
       </c>
-      <c r="F29" s="65">
-        <v>1</v>
-      </c>
-      <c r="G29" s="119">
-        <v>0</v>
-      </c>
-      <c r="H29" s="93">
-        <v>0</v>
-      </c>
-      <c r="I29" s="91">
-        <v>0</v>
-      </c>
-      <c r="J29" s="91">
-        <v>0</v>
-      </c>
-      <c r="K29" s="92">
-        <v>0</v>
-      </c>
-      <c r="L29" s="132" t="s">
+      <c r="F29" s="64">
+        <v>1</v>
+      </c>
+      <c r="G29" s="118">
+        <v>0</v>
+      </c>
+      <c r="H29" s="92">
+        <v>0</v>
+      </c>
+      <c r="I29" s="90">
+        <v>0</v>
+      </c>
+      <c r="J29" s="90">
+        <v>0</v>
+      </c>
+      <c r="K29" s="91">
+        <v>0</v>
+      </c>
+      <c r="L29" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="133"/>
-      <c r="S29" s="133"/>
-      <c r="T29" s="133"/>
-      <c r="U29" s="133"/>
-      <c r="V29" s="133"/>
-      <c r="W29" s="133"/>
-      <c r="X29" s="133"/>
-      <c r="Y29" s="133"/>
-      <c r="Z29" s="133"/>
-      <c r="AA29" s="133"/>
-      <c r="AB29" s="133"/>
-      <c r="AC29" s="133"/>
-      <c r="AD29" s="133"/>
-      <c r="AE29" s="133"/>
-      <c r="AF29" s="133"/>
-      <c r="AG29" s="157"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="130"/>
+      <c r="W29" s="130"/>
+      <c r="X29" s="130"/>
+      <c r="Y29" s="130"/>
+      <c r="Z29" s="130"/>
+      <c r="AA29" s="130"/>
+      <c r="AB29" s="130"/>
+      <c r="AC29" s="130"/>
+      <c r="AD29" s="130"/>
+      <c r="AE29" s="130"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="158"/>
     </row>
     <row r="30" spans="1:33">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="88">
-        <v>1</v>
-      </c>
-      <c r="C30" s="87">
-        <v>0</v>
-      </c>
-      <c r="D30" s="103">
+      <c r="B30" s="87">
+        <v>1</v>
+      </c>
+      <c r="C30" s="86">
+        <v>0</v>
+      </c>
+      <c r="D30" s="102">
         <v>0</v>
       </c>
       <c r="E30" s="17">
         <v>0</v>
       </c>
-      <c r="F30" s="89">
-        <v>1</v>
-      </c>
-      <c r="G30" s="120">
-        <v>1</v>
-      </c>
-      <c r="H30" s="78">
-        <v>0</v>
-      </c>
-      <c r="I30" s="79">
-        <v>0</v>
-      </c>
-      <c r="J30" s="79">
-        <v>0</v>
-      </c>
-      <c r="K30" s="80">
-        <v>1</v>
-      </c>
-      <c r="L30" s="148" t="s">
+      <c r="F30" s="88">
+        <v>1</v>
+      </c>
+      <c r="G30" s="119">
+        <v>1</v>
+      </c>
+      <c r="H30" s="77">
+        <v>0</v>
+      </c>
+      <c r="I30" s="78">
+        <v>0</v>
+      </c>
+      <c r="J30" s="78">
+        <v>0</v>
+      </c>
+      <c r="K30" s="79">
+        <v>1</v>
+      </c>
+      <c r="L30" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="146"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="125"/>
+      <c r="Y30" s="125"/>
+      <c r="Z30" s="125"/>
+      <c r="AA30" s="125"/>
+      <c r="AB30" s="125"/>
+      <c r="AC30" s="125"/>
+      <c r="AD30" s="125"/>
+      <c r="AE30" s="125"/>
+      <c r="AF30" s="125"/>
+      <c r="AG30" s="126"/>
     </row>
     <row r="31" spans="1:33">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="88">
-        <v>1</v>
-      </c>
-      <c r="C31" s="87">
-        <v>0</v>
-      </c>
-      <c r="D31" s="103">
+      <c r="B31" s="87">
+        <v>1</v>
+      </c>
+      <c r="C31" s="86">
+        <v>0</v>
+      </c>
+      <c r="D31" s="102">
         <v>0</v>
       </c>
       <c r="E31" s="17">
         <v>0</v>
       </c>
-      <c r="F31" s="89">
-        <v>1</v>
-      </c>
-      <c r="G31" s="120">
-        <v>1</v>
-      </c>
-      <c r="H31" s="78">
-        <v>0</v>
-      </c>
-      <c r="I31" s="79">
-        <v>0</v>
-      </c>
-      <c r="J31" s="79">
-        <v>1</v>
-      </c>
-      <c r="K31" s="80">
-        <v>0</v>
-      </c>
-      <c r="L31" s="148" t="s">
+      <c r="F31" s="88">
+        <v>1</v>
+      </c>
+      <c r="G31" s="119">
+        <v>1</v>
+      </c>
+      <c r="H31" s="77">
+        <v>0</v>
+      </c>
+      <c r="I31" s="78">
+        <v>0</v>
+      </c>
+      <c r="J31" s="78">
+        <v>1</v>
+      </c>
+      <c r="K31" s="79">
+        <v>0</v>
+      </c>
+      <c r="L31" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="146"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="125"/>
+      <c r="W31" s="125"/>
+      <c r="X31" s="125"/>
+      <c r="Y31" s="125"/>
+      <c r="Z31" s="125"/>
+      <c r="AA31" s="125"/>
+      <c r="AB31" s="125"/>
+      <c r="AC31" s="125"/>
+      <c r="AD31" s="125"/>
+      <c r="AE31" s="125"/>
+      <c r="AF31" s="125"/>
+      <c r="AG31" s="126"/>
     </row>
     <row r="32" spans="1:33">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="88">
-        <v>1</v>
-      </c>
-      <c r="C32" s="87">
-        <v>0</v>
-      </c>
-      <c r="D32" s="103">
+      <c r="B32" s="87">
+        <v>1</v>
+      </c>
+      <c r="C32" s="86">
+        <v>0</v>
+      </c>
+      <c r="D32" s="102">
         <v>0</v>
       </c>
       <c r="E32" s="17">
         <v>0</v>
       </c>
-      <c r="F32" s="89">
-        <v>1</v>
-      </c>
-      <c r="G32" s="120">
-        <v>1</v>
-      </c>
-      <c r="H32" s="78">
-        <v>0</v>
-      </c>
-      <c r="I32" s="79">
-        <v>0</v>
-      </c>
-      <c r="J32" s="79">
-        <v>1</v>
-      </c>
-      <c r="K32" s="80">
-        <v>1</v>
-      </c>
-      <c r="L32" s="148" t="s">
+      <c r="F32" s="88">
+        <v>1</v>
+      </c>
+      <c r="G32" s="119">
+        <v>1</v>
+      </c>
+      <c r="H32" s="77">
+        <v>0</v>
+      </c>
+      <c r="I32" s="78">
+        <v>0</v>
+      </c>
+      <c r="J32" s="78">
+        <v>1</v>
+      </c>
+      <c r="K32" s="79">
+        <v>1</v>
+      </c>
+      <c r="L32" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="146"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="125"/>
+      <c r="W32" s="125"/>
+      <c r="X32" s="125"/>
+      <c r="Y32" s="125"/>
+      <c r="Z32" s="125"/>
+      <c r="AA32" s="125"/>
+      <c r="AB32" s="125"/>
+      <c r="AC32" s="125"/>
+      <c r="AD32" s="125"/>
+      <c r="AE32" s="125"/>
+      <c r="AF32" s="125"/>
+      <c r="AG32" s="126"/>
     </row>
     <row r="33" spans="1:33">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="88">
-        <v>1</v>
-      </c>
-      <c r="C33" s="87">
-        <v>0</v>
-      </c>
-      <c r="D33" s="103">
+      <c r="B33" s="87">
+        <v>1</v>
+      </c>
+      <c r="C33" s="86">
+        <v>0</v>
+      </c>
+      <c r="D33" s="102">
         <v>0</v>
       </c>
       <c r="E33" s="17">
         <v>0</v>
       </c>
-      <c r="F33" s="89">
-        <v>1</v>
-      </c>
-      <c r="G33" s="120">
-        <v>1</v>
-      </c>
-      <c r="H33" s="78">
-        <v>0</v>
-      </c>
-      <c r="I33" s="79">
-        <v>1</v>
-      </c>
-      <c r="J33" s="79">
-        <v>0</v>
-      </c>
-      <c r="K33" s="80">
-        <v>0</v>
-      </c>
-      <c r="L33" s="148" t="s">
+      <c r="F33" s="88">
+        <v>1</v>
+      </c>
+      <c r="G33" s="119">
+        <v>1</v>
+      </c>
+      <c r="H33" s="77">
+        <v>0</v>
+      </c>
+      <c r="I33" s="78">
+        <v>1</v>
+      </c>
+      <c r="J33" s="78">
+        <v>0</v>
+      </c>
+      <c r="K33" s="79">
+        <v>0</v>
+      </c>
+      <c r="L33" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="146"/>
+      <c r="M33" s="125"/>
+      <c r="N33" s="125"/>
+      <c r="O33" s="125"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="125"/>
+      <c r="R33" s="125"/>
+      <c r="S33" s="125"/>
+      <c r="T33" s="125"/>
+      <c r="U33" s="125"/>
+      <c r="V33" s="125"/>
+      <c r="W33" s="125"/>
+      <c r="X33" s="125"/>
+      <c r="Y33" s="125"/>
+      <c r="Z33" s="125"/>
+      <c r="AA33" s="125"/>
+      <c r="AB33" s="125"/>
+      <c r="AC33" s="125"/>
+      <c r="AD33" s="125"/>
+      <c r="AE33" s="125"/>
+      <c r="AF33" s="125"/>
+      <c r="AG33" s="126"/>
     </row>
     <row r="34" spans="1:33">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="88">
-        <v>1</v>
-      </c>
-      <c r="C34" s="87">
-        <v>0</v>
-      </c>
-      <c r="D34" s="103">
+      <c r="B34" s="87">
+        <v>1</v>
+      </c>
+      <c r="C34" s="86">
+        <v>0</v>
+      </c>
+      <c r="D34" s="102">
         <v>0</v>
       </c>
       <c r="E34" s="17">
         <v>0</v>
       </c>
-      <c r="F34" s="89">
-        <v>1</v>
-      </c>
-      <c r="G34" s="120">
-        <v>1</v>
-      </c>
-      <c r="H34" s="78">
-        <v>0</v>
-      </c>
-      <c r="I34" s="79">
-        <v>1</v>
-      </c>
-      <c r="J34" s="79">
-        <v>0</v>
-      </c>
-      <c r="K34" s="80">
-        <v>1</v>
-      </c>
-      <c r="L34" s="148" t="s">
+      <c r="F34" s="88">
+        <v>1</v>
+      </c>
+      <c r="G34" s="119">
+        <v>1</v>
+      </c>
+      <c r="H34" s="77">
+        <v>0</v>
+      </c>
+      <c r="I34" s="78">
+        <v>1</v>
+      </c>
+      <c r="J34" s="78">
+        <v>0</v>
+      </c>
+      <c r="K34" s="79">
+        <v>1</v>
+      </c>
+      <c r="L34" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="M34" s="128"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="128"/>
-      <c r="P34" s="128"/>
-      <c r="Q34" s="128"/>
-      <c r="R34" s="128"/>
-      <c r="S34" s="128"/>
-      <c r="T34" s="128"/>
-      <c r="U34" s="128"/>
-      <c r="V34" s="128"/>
-      <c r="W34" s="128"/>
-      <c r="X34" s="128"/>
-      <c r="Y34" s="128"/>
-      <c r="Z34" s="128"/>
-      <c r="AA34" s="128"/>
-      <c r="AB34" s="128"/>
-      <c r="AC34" s="128"/>
-      <c r="AD34" s="128"/>
-      <c r="AE34" s="128"/>
-      <c r="AF34" s="128"/>
-      <c r="AG34" s="146"/>
+      <c r="M34" s="125"/>
+      <c r="N34" s="125"/>
+      <c r="O34" s="125"/>
+      <c r="P34" s="125"/>
+      <c r="Q34" s="125"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="125"/>
+      <c r="T34" s="125"/>
+      <c r="U34" s="125"/>
+      <c r="V34" s="125"/>
+      <c r="W34" s="125"/>
+      <c r="X34" s="125"/>
+      <c r="Y34" s="125"/>
+      <c r="Z34" s="125"/>
+      <c r="AA34" s="125"/>
+      <c r="AB34" s="125"/>
+      <c r="AC34" s="125"/>
+      <c r="AD34" s="125"/>
+      <c r="AE34" s="125"/>
+      <c r="AF34" s="125"/>
+      <c r="AG34" s="126"/>
     </row>
     <row r="35" spans="1:33" ht="18" thickBot="1">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="66">
-        <v>1</v>
-      </c>
-      <c r="C35" s="67">
-        <v>0</v>
-      </c>
-      <c r="D35" s="104">
-        <v>0</v>
-      </c>
-      <c r="E35" s="60">
-        <v>0</v>
-      </c>
-      <c r="F35" s="70">
-        <v>1</v>
-      </c>
-      <c r="G35" s="121">
-        <v>1</v>
-      </c>
-      <c r="H35" s="81">
-        <v>0</v>
-      </c>
-      <c r="I35" s="82">
-        <v>1</v>
-      </c>
-      <c r="J35" s="82">
-        <v>1</v>
-      </c>
-      <c r="K35" s="83">
+      <c r="B35" s="65">
+        <v>1</v>
+      </c>
+      <c r="C35" s="66">
+        <v>0</v>
+      </c>
+      <c r="D35" s="103">
+        <v>0</v>
+      </c>
+      <c r="E35" s="59">
+        <v>0</v>
+      </c>
+      <c r="F35" s="69">
+        <v>1</v>
+      </c>
+      <c r="G35" s="120">
+        <v>1</v>
+      </c>
+      <c r="H35" s="80">
+        <v>0</v>
+      </c>
+      <c r="I35" s="81">
+        <v>1</v>
+      </c>
+      <c r="J35" s="81">
+        <v>1</v>
+      </c>
+      <c r="K35" s="82">
         <v>0</v>
       </c>
       <c r="L35" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="155"/>
-      <c r="Q35" s="155"/>
-      <c r="R35" s="155"/>
-      <c r="S35" s="155"/>
-      <c r="T35" s="155"/>
-      <c r="U35" s="155"/>
-      <c r="V35" s="155"/>
-      <c r="W35" s="155"/>
-      <c r="X35" s="155"/>
-      <c r="Y35" s="155"/>
-      <c r="Z35" s="155"/>
-      <c r="AA35" s="155"/>
-      <c r="AB35" s="155"/>
-      <c r="AC35" s="155"/>
-      <c r="AD35" s="155"/>
-      <c r="AE35" s="155"/>
-      <c r="AF35" s="155"/>
-      <c r="AG35" s="158"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="132"/>
+      <c r="P35" s="132"/>
+      <c r="Q35" s="132"/>
+      <c r="R35" s="132"/>
+      <c r="S35" s="132"/>
+      <c r="T35" s="132"/>
+      <c r="U35" s="132"/>
+      <c r="V35" s="132"/>
+      <c r="W35" s="132"/>
+      <c r="X35" s="132"/>
+      <c r="Y35" s="132"/>
+      <c r="Z35" s="132"/>
+      <c r="AA35" s="132"/>
+      <c r="AB35" s="132"/>
+      <c r="AC35" s="132"/>
+      <c r="AD35" s="132"/>
+      <c r="AE35" s="132"/>
+      <c r="AF35" s="132"/>
+      <c r="AG35" s="133"/>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="71">
-        <v>1</v>
-      </c>
-      <c r="C36" s="72">
-        <v>0</v>
-      </c>
-      <c r="D36" s="73">
-        <v>0</v>
-      </c>
-      <c r="E36" s="74">
-        <v>1</v>
-      </c>
-      <c r="F36" s="90">
-        <v>0</v>
-      </c>
-      <c r="G36" s="122">
-        <v>0</v>
-      </c>
-      <c r="H36" s="159" t="s">
+      <c r="B36" s="70">
+        <v>1</v>
+      </c>
+      <c r="C36" s="71">
+        <v>0</v>
+      </c>
+      <c r="D36" s="72">
+        <v>0</v>
+      </c>
+      <c r="E36" s="73">
+        <v>1</v>
+      </c>
+      <c r="F36" s="89">
+        <v>0</v>
+      </c>
+      <c r="G36" s="121">
+        <v>0</v>
+      </c>
+      <c r="H36" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="149" t="s">
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="M36" s="150"/>
-      <c r="N36" s="150"/>
-      <c r="O36" s="150"/>
-      <c r="P36" s="150"/>
-      <c r="Q36" s="150"/>
-      <c r="R36" s="150"/>
-      <c r="S36" s="150"/>
-      <c r="T36" s="150"/>
-      <c r="U36" s="150"/>
-      <c r="V36" s="150"/>
-      <c r="W36" s="150"/>
-      <c r="X36" s="150"/>
-      <c r="Y36" s="150"/>
-      <c r="Z36" s="150"/>
-      <c r="AA36" s="150"/>
-      <c r="AB36" s="150"/>
-      <c r="AC36" s="150"/>
-      <c r="AD36" s="150"/>
-      <c r="AE36" s="150"/>
-      <c r="AF36" s="150"/>
-      <c r="AG36" s="160"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="128"/>
+      <c r="T36" s="128"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="128"/>
+      <c r="W36" s="128"/>
+      <c r="X36" s="128"/>
+      <c r="Y36" s="128"/>
+      <c r="Z36" s="128"/>
+      <c r="AA36" s="128"/>
+      <c r="AB36" s="128"/>
+      <c r="AC36" s="128"/>
+      <c r="AD36" s="128"/>
+      <c r="AE36" s="128"/>
+      <c r="AF36" s="128"/>
+      <c r="AG36" s="146"/>
     </row>
     <row r="37" spans="1:33" ht="18" thickBot="1">
       <c r="A37" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="66">
-        <v>1</v>
-      </c>
-      <c r="C37" s="67">
-        <v>0</v>
-      </c>
-      <c r="D37" s="68">
-        <v>0</v>
-      </c>
-      <c r="E37" s="69">
-        <v>1</v>
-      </c>
-      <c r="F37" s="70">
-        <v>0</v>
-      </c>
-      <c r="G37" s="123">
+      <c r="B37" s="65">
+        <v>1</v>
+      </c>
+      <c r="C37" s="66">
+        <v>0</v>
+      </c>
+      <c r="D37" s="67">
+        <v>0</v>
+      </c>
+      <c r="E37" s="68">
+        <v>1</v>
+      </c>
+      <c r="F37" s="69">
+        <v>0</v>
+      </c>
+      <c r="G37" s="122">
         <v>1</v>
       </c>
       <c r="H37" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="165" t="s">
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="155"/>
-      <c r="Q37" s="155"/>
-      <c r="R37" s="155"/>
-      <c r="S37" s="155"/>
-      <c r="T37" s="155"/>
-      <c r="U37" s="155"/>
-      <c r="V37" s="155"/>
-      <c r="W37" s="155"/>
-      <c r="X37" s="155"/>
-      <c r="Y37" s="155"/>
-      <c r="Z37" s="155"/>
-      <c r="AA37" s="155"/>
-      <c r="AB37" s="155"/>
-      <c r="AC37" s="155"/>
-      <c r="AD37" s="155"/>
-      <c r="AE37" s="155"/>
-      <c r="AF37" s="155"/>
-      <c r="AG37" s="158"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="132"/>
+      <c r="P37" s="132"/>
+      <c r="Q37" s="132"/>
+      <c r="R37" s="132"/>
+      <c r="S37" s="132"/>
+      <c r="T37" s="132"/>
+      <c r="U37" s="132"/>
+      <c r="V37" s="132"/>
+      <c r="W37" s="132"/>
+      <c r="X37" s="132"/>
+      <c r="Y37" s="132"/>
+      <c r="Z37" s="132"/>
+      <c r="AA37" s="132"/>
+      <c r="AB37" s="132"/>
+      <c r="AC37" s="132"/>
+      <c r="AD37" s="132"/>
+      <c r="AE37" s="132"/>
+      <c r="AF37" s="132"/>
+      <c r="AG37" s="133"/>
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="71">
-        <v>1</v>
-      </c>
-      <c r="C38" s="72">
-        <v>0</v>
-      </c>
-      <c r="D38" s="73">
-        <v>0</v>
-      </c>
-      <c r="E38" s="74">
-        <v>1</v>
-      </c>
-      <c r="F38" s="90">
-        <v>1</v>
-      </c>
-      <c r="G38" s="122">
-        <v>0</v>
-      </c>
-      <c r="H38" s="159" t="s">
+      <c r="B38" s="70">
+        <v>1</v>
+      </c>
+      <c r="C38" s="71">
+        <v>0</v>
+      </c>
+      <c r="D38" s="72">
+        <v>0</v>
+      </c>
+      <c r="E38" s="73">
+        <v>1</v>
+      </c>
+      <c r="F38" s="89">
+        <v>1</v>
+      </c>
+      <c r="G38" s="121">
+        <v>0</v>
+      </c>
+      <c r="H38" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="M38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="N38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="O38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="P38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="R38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="S38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="T38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="U38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="V38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="W38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="X38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG38" s="75" t="s">
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="O38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="R38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="U38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="V38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="W38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="X38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF38" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG38" s="74" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4837,25 +4808,25 @@
       <c r="A39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="66">
-        <v>1</v>
-      </c>
-      <c r="C39" s="67">
-        <v>0</v>
-      </c>
-      <c r="D39" s="68">
-        <v>0</v>
-      </c>
-      <c r="E39" s="69">
-        <v>1</v>
-      </c>
-      <c r="F39" s="70">
-        <v>1</v>
-      </c>
-      <c r="G39" s="123">
-        <v>1</v>
-      </c>
-      <c r="H39" s="76" t="s">
+      <c r="B39" s="65">
+        <v>1</v>
+      </c>
+      <c r="C39" s="66">
+        <v>0</v>
+      </c>
+      <c r="D39" s="67">
+        <v>0</v>
+      </c>
+      <c r="E39" s="68">
+        <v>1</v>
+      </c>
+      <c r="F39" s="69">
+        <v>1</v>
+      </c>
+      <c r="G39" s="122">
+        <v>1</v>
+      </c>
+      <c r="H39" s="75" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="39" t="s">
@@ -4936,6 +4907,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P9:AG9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="P19:AG19"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P11:AG11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P10:AG10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="P20:AG20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P12:AG12"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L29:AG29"/>
+    <mergeCell ref="L35:AG35"/>
+    <mergeCell ref="L33:AG33"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="L36:AG36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="L30:AG30"/>
+    <mergeCell ref="L31:AG31"/>
+    <mergeCell ref="P24:AG24"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P26:AG26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="P18:AG18"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P17:AG17"/>
+    <mergeCell ref="P16:S16"/>
     <mergeCell ref="L34:AG34"/>
     <mergeCell ref="L32:AG32"/>
     <mergeCell ref="H38:K38"/>
@@ -4952,76 +4993,6 @@
     <mergeCell ref="P4:AG4"/>
     <mergeCell ref="P3:AG3"/>
     <mergeCell ref="P25:AG25"/>
-    <mergeCell ref="P26:AG26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="P18:AG18"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P17:AG17"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L29:AG29"/>
-    <mergeCell ref="L35:AG35"/>
-    <mergeCell ref="L33:AG33"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="L36:AG36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="P27:S27"/>
-    <mergeCell ref="L30:AG30"/>
-    <mergeCell ref="L31:AG31"/>
-    <mergeCell ref="P24:AG24"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="P20:AG20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P12:AG12"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P10:AG10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P9:AG9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="P19:AG19"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P11:AG11"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
